--- a/Study 3/Shocks/GCAM/NDC_EI - 2035.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2035.xlsx
@@ -11442,7 +11442,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.02995005972906256</v>
+        <v>0.02995005972906257</v>
       </c>
     </row>
     <row r="4">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.07120915299518508</v>
+        <v>0.07120915299518507</v>
       </c>
     </row>
     <row r="6">
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.002656503959304129</v>
+        <v>0.00265650395930413</v>
       </c>
     </row>
     <row r="8">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.004400843415568974</v>
+        <v>0.004400843415568975</v>
       </c>
     </row>
     <row r="12">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.03683266318039064</v>
+        <v>0.03683266318039063</v>
       </c>
     </row>
     <row r="18">
@@ -12082,7 +12082,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.09011845572763486</v>
+        <v>0.09011845572763487</v>
       </c>
     </row>
     <row r="20">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.051043819321031</v>
+        <v>0.05104381932103098</v>
       </c>
     </row>
     <row r="22">
@@ -12402,7 +12402,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.002846834910105449</v>
+        <v>0.00284683491010545</v>
       </c>
     </row>
     <row r="28">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.01375142302140467</v>
+        <v>0.01375142302140466</v>
       </c>
     </row>
     <row r="30">
@@ -12882,7 +12882,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.4044725631862501</v>
+        <v>0.4044725631862502</v>
       </c>
     </row>
     <row r="40">
